--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2024/33_Gaziantep_2024.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2024/33_Gaziantep_2024.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk 2024\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2D8DE899-B486-4D5E-BCF7-2F321351D89A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{430E7646-2071-423A-862F-5C7FBAB769F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="667" xr2:uid="{56D484D2-4328-4D04-8B7C-BDA7ADB61D2E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="667" xr2:uid="{7D8E49A3-6484-43B8-BB81-C1E91B6D5CED}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="135" r:id="rId1"/>
@@ -901,13 +901,13 @@
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{D9B0B1B3-1321-4C2F-9FE1-0D219A85572C}"/>
-    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{2C6DC406-8638-455D-B717-813A05400782}"/>
-    <cellStyle name="Normal 3" xfId="3" xr:uid="{8CDE5C4F-39F6-4564-90D0-669DADC20F69}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="4" xr:uid="{C57D6C18-68DD-4D4A-A5DB-6798F1F3B79C}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="5" xr:uid="{3FB99A0C-D06D-46B5-9DA1-9DB46F3CB8B0}"/>
-    <cellStyle name="Not 2" xfId="6" xr:uid="{8820BA3D-17B1-48BC-9E31-2873739332CC}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="7" xr:uid="{BF936C2E-220D-4161-8299-6907FCCE6D49}"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{F801A852-1A69-49A5-8ECB-DCAAD67ED7A4}"/>
+    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{87111849-E7F8-4032-9480-E412D77F7C83}"/>
+    <cellStyle name="Normal 3" xfId="3" xr:uid="{39F59B3A-E81F-45D7-8E81-535533A01991}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="4" xr:uid="{F6E23FAC-ED23-419B-BCF7-DC778CAF6B1A}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="5" xr:uid="{C54F51C4-DD48-44F7-A56C-DB39CC699DE3}"/>
+    <cellStyle name="Not 2" xfId="6" xr:uid="{6CEE4C64-2213-45E0-932D-F58BA9BBB470}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="7" xr:uid="{0CD5237A-30AA-4038-B1BB-6E458291C0A4}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1277,7 +1277,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08830F2C-8938-4BA7-A3DA-4C9560851DD5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB229EB7-B6AA-485B-A93D-79EEE34D1A55}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -2590,7 +2590,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7264466-FBA4-4C17-96D9-8CDCAF0B5F78}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D4C3FB1-EDD3-4627-B177-C1415C58A542}">
   <sheetPr codeName="Sayfa3"/>
   <dimension ref="B2:F104"/>
   <sheetViews>
@@ -3900,7 +3900,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{292DD3C4-C2E1-4745-8128-07857CD74A32}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA1BD2A1-2064-45E2-878F-4865842B6C0C}">
   <sheetPr codeName="Sayfa1"/>
   <dimension ref="B2:F104"/>
   <sheetViews>
@@ -5208,7 +5208,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2FE7EDA-F53F-4AF6-819D-B274F35EC3C4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{659B4AC2-17E6-41D2-9359-7E8642F8AFE9}">
   <sheetPr codeName="Sayfa2"/>
   <dimension ref="B2:F104"/>
   <sheetViews>
@@ -6514,7 +6514,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8CBDC33-95FA-4972-9016-1A527F52FC47}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D7B3161-4036-468C-BF86-73CD79A036AA}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -7827,7 +7827,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D9972E3-BD68-4CA3-81E5-E82386122F78}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDFC01CC-EA84-4D37-A411-E037A0B19D3C}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -9138,7 +9138,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2586661B-7F16-46A7-9EAD-9517E380F145}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D45C155-C78C-491D-94AC-09D13D077F81}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -10447,7 +10447,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{827AD19F-9C19-490C-ACA9-5682E6236364}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B63DC1B9-684F-49F3-970B-AE11238BADD9}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -11754,7 +11754,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{090B82B2-D380-4C8F-87EE-296E9C327499}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD92F481-5837-4A64-89B4-98AE1802A6EA}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -13065,7 +13065,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABDA0D90-8079-4419-94CF-BA7EEB0A70A5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48B5C52D-49ED-4446-AC85-C7910E18DC69}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -14368,7 +14368,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDEB6527-EC49-4139-BA11-6278FE5005B0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84D3B767-1E1A-4971-B746-15A8536F95B6}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -15675,7 +15675,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B3D0AE6-984F-4E0C-BBE9-16C88B4E3CF9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{142AB5C6-5FF3-45BD-8D58-B1208D01AF5A}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
